--- a/aalatih.xlsx
+++ b/aalatih.xlsx
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C196">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D196">
         <v>134</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C197">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D197">
         <v>134</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C198">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D198">
         <v>134</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C199">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D199">
         <v>135</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C200">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D200">
         <v>135</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C201">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D201">
         <v>135</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C202">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D202">
         <v>135</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C203">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D203">
         <v>134</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C204">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D204">
         <v>134</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C205">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D205">
         <v>134</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C206">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D206">
         <v>135</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C207">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D207">
         <v>135</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C208">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D208">
         <v>135</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D209">
         <v>135</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C221">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D221">
         <v>134</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C222">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D222">
         <v>134</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="223" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C223">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D223">
         <v>134</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="224" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C224">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D224">
         <v>135</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C225">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D225">
         <v>135</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C226">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D226">
         <v>135</v>

--- a/aalatih.xlsx
+++ b/aalatih.xlsx
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="G225" sqref="G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,6 +3069,94 @@
       </c>
       <c r="E226">
         <v>82.6</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>26.15</v>
+      </c>
+      <c r="D227">
+        <v>133</v>
+      </c>
+      <c r="E227">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C228" s="6">
+        <v>26.15</v>
+      </c>
+      <c r="D228">
+        <v>132</v>
+      </c>
+      <c r="E228">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C229" s="6">
+        <v>26.15</v>
+      </c>
+      <c r="D229" s="6">
+        <v>133</v>
+      </c>
+      <c r="E229" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C230" s="6">
+        <v>26.15</v>
+      </c>
+      <c r="D230" s="6">
+        <v>132</v>
+      </c>
+      <c r="E230" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C231" s="6">
+        <v>26.15</v>
+      </c>
+      <c r="D231" s="6">
+        <v>133</v>
+      </c>
+      <c r="E231" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C232" s="6">
+        <v>26.15</v>
+      </c>
+      <c r="D232" s="6">
+        <v>132</v>
+      </c>
+      <c r="E232" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C233" s="6">
+        <v>26.15</v>
+      </c>
+      <c r="D233" s="6">
+        <v>133</v>
+      </c>
+      <c r="E233" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C234" s="6">
+        <v>26.15</v>
+      </c>
+      <c r="D234" s="6">
+        <v>132</v>
+      </c>
+      <c r="E234" s="6">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/aalatih.xlsx
+++ b/aalatih.xlsx
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D134">
         <v>133</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D135">
         <v>133</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D136">
         <v>133</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D137">
         <v>133</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D138">
         <v>133</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D139">
         <v>133</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D140">
         <v>133</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D141">
         <v>133</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D142">
         <v>133</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D143">
         <v>133</v>

--- a/aalatih.xlsx
+++ b/aalatih.xlsx
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,112 +1968,112 @@
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D134">
         <v>133</v>
       </c>
       <c r="E134">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D135">
         <v>133</v>
       </c>
       <c r="E135">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D136">
         <v>133</v>
       </c>
       <c r="E136">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D137">
         <v>133</v>
       </c>
       <c r="E137">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D138">
         <v>133</v>
       </c>
       <c r="E138">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D139">
         <v>133</v>
       </c>
       <c r="E139">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D140">
         <v>133</v>
       </c>
       <c r="E140">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D141">
         <v>133</v>
       </c>
       <c r="E141">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D142">
         <v>133</v>
       </c>
       <c r="E142">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D143">
         <v>133</v>
       </c>
       <c r="E143">
-        <v>81.8</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/aalatih.xlsx
+++ b/aalatih.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -404,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,32 +1072,30 @@
         <v>37.249389999999998</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>132</v>
+      </c>
+      <c r="E47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>21.3</v>
+      </c>
+      <c r="D48">
+        <v>133</v>
+      </c>
+      <c r="E48">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>